--- a/data/Final_Intern-Account_Transactions.xlsx
+++ b/data/Final_Intern-Account_Transactions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="158">
   <si>
     <t xml:space="preserve">Problem:
 Justworks wants to generate insight from a list of banking transactions occurring in customer accounts. We want to generate minimum , maximum and ending balances by month for all customers. You can assume starting balance at begining of month is 0. You should read transaction data from csv files and produce output in the format mentioned below. You can assume -ve number as debit and +ve number as credit
@@ -31,18 +31,6 @@
 CustomerID, Date, Amount
 Output Format:
 CustomerID, MM/YYYY, Min Balance, Max Balance, Ending Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Cr/Dr txns per day possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustIDs grouped; internally, not ordered by date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a CustID, each set has txns for one month; next month txns after an empty line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty line between different CustID datasets</t>
   </si>
   <si>
     <t xml:space="preserve">Customer Id</t>
@@ -900,11 +888,11 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="114.13"/>
   </cols>
@@ -936,24 +924,16 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
@@ -3938,10 +3918,10 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="A9:A12 E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.88"/>
@@ -3950,30 +3930,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -3998,7 +3978,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>44866</v>
@@ -4007,7 +3987,7 @@
         <v>9232</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>44866</v>
@@ -4025,7 +4005,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">B2+1</f>
@@ -4035,7 +4015,7 @@
         <v>6061</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>44866</v>
@@ -4053,7 +4033,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">B3+1</f>
@@ -4063,7 +4043,7 @@
         <v>5108</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>44866</v>
@@ -4082,7 +4062,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="n">
         <f aca="false">B4+1</f>
@@ -4097,7 +4077,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="n">
         <f aca="false">B5+1</f>
@@ -4112,7 +4092,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="n">
         <f aca="false">B6+1</f>
@@ -4127,7 +4107,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="n">
         <f aca="false">B7+1</f>
@@ -4142,7 +4122,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="n">
         <f aca="false">B8+1</f>
@@ -4157,7 +4137,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="n">
         <f aca="false">B9+1</f>
@@ -4172,7 +4152,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
         <f aca="false">B10+1</f>
@@ -4187,7 +4167,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="n">
         <f aca="false">B11+1</f>
@@ -4201,7 +4181,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="n">
         <f aca="false">B12+1</f>
@@ -4213,7 +4193,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="n">
         <f aca="false">B13+1</f>
@@ -4225,7 +4205,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="n">
         <f aca="false">B14+1</f>
@@ -4237,7 +4217,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="n">
         <f aca="false">B15+1</f>
@@ -4249,7 +4229,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="n">
         <f aca="false">B16+1</f>
@@ -4261,7 +4241,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="n">
         <f aca="false">B17+1</f>
@@ -4273,7 +4253,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3" t="n">
         <f aca="false">B18+1</f>
@@ -4285,7 +4265,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="n">
         <f aca="false">B19+1</f>
@@ -4297,7 +4277,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="n">
         <f aca="false">B20+1</f>
@@ -4309,7 +4289,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22" s="3" t="n">
         <f aca="false">B21+1</f>
@@ -4321,7 +4301,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3" t="n">
         <f aca="false">B22+1</f>
@@ -4333,7 +4313,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="n">
         <f aca="false">B23+1</f>
@@ -4345,7 +4325,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" s="3" t="n">
         <f aca="false">B24+1</f>
@@ -4357,7 +4337,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3" t="n">
         <f aca="false">B25+1</f>
@@ -4369,7 +4349,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" s="3" t="n">
         <f aca="false">B26+1</f>
@@ -4381,7 +4361,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B28" s="3" t="n">
         <f aca="false">B27+1</f>
@@ -4393,7 +4373,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="n">
         <f aca="false">B28+1</f>
@@ -4405,7 +4385,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="n">
         <f aca="false">B29+1</f>
@@ -4417,7 +4397,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="n">
         <f aca="false">B30+1</f>
@@ -4433,7 +4413,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>44866</v>
@@ -4444,7 +4424,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3" t="n">
         <f aca="false">B33+1</f>
@@ -4456,7 +4436,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B35" s="3" t="n">
         <f aca="false">B34+1</f>
@@ -4468,7 +4448,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">B35+1</f>
@@ -4480,7 +4460,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B37" s="3" t="n">
         <f aca="false">B36+1</f>
@@ -4492,7 +4472,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3" t="n">
         <f aca="false">B37+1</f>
@@ -4504,7 +4484,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B39" s="3" t="n">
         <f aca="false">B38+1</f>
@@ -4516,7 +4496,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3" t="n">
         <f aca="false">B39+1</f>
@@ -4528,7 +4508,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B41" s="3" t="n">
         <f aca="false">B40+1</f>
@@ -4540,7 +4520,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B42" s="3" t="n">
         <f aca="false">B41+1</f>
@@ -4552,7 +4532,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43" s="3" t="n">
         <f aca="false">B42+1</f>
@@ -4564,7 +4544,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" s="3" t="n">
         <f aca="false">B43+1</f>
@@ -4576,7 +4556,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="n">
         <f aca="false">B44+1</f>
@@ -4588,7 +4568,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B46" s="3" t="n">
         <f aca="false">B45+1</f>
@@ -4600,7 +4580,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B47" s="3" t="n">
         <f aca="false">B46+1</f>
@@ -4612,7 +4592,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B48" s="3" t="n">
         <f aca="false">B47+1</f>
@@ -4624,7 +4604,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3" t="n">
         <f aca="false">B48+1</f>
@@ -4636,7 +4616,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B50" s="3" t="n">
         <f aca="false">B49+1</f>
@@ -4648,7 +4628,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B51" s="3" t="n">
         <f aca="false">B50+1</f>
@@ -4660,7 +4640,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B52" s="3" t="n">
         <f aca="false">B51+1</f>
@@ -4672,7 +4652,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3" t="n">
         <f aca="false">B52+1</f>
@@ -4684,7 +4664,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3" t="n">
         <f aca="false">B53+1</f>
@@ -4696,7 +4676,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3" t="n">
         <f aca="false">B54+1</f>
@@ -4708,7 +4688,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B56" s="3" t="n">
         <f aca="false">B55+1</f>
@@ -4720,7 +4700,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" s="3" t="n">
         <f aca="false">B56+1</f>
@@ -4732,7 +4712,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" s="3" t="n">
         <f aca="false">B57+1</f>
@@ -4744,7 +4724,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B59" s="3" t="n">
         <f aca="false">B58+1</f>
@@ -4756,7 +4736,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B60" s="3" t="n">
         <f aca="false">B59+1</f>
@@ -4768,7 +4748,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3" t="n">
         <f aca="false">B60+1</f>
@@ -4780,7 +4760,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B62" s="3" t="n">
         <f aca="false">B61+1</f>
@@ -4792,7 +4772,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>44866</v>
@@ -4803,7 +4783,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">B64+1</f>
@@ -4815,7 +4795,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B66" s="5" t="n">
         <f aca="false">B65+1</f>
@@ -4827,7 +4807,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B67" s="5" t="n">
         <f aca="false">B66+1</f>
@@ -4839,7 +4819,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B68" s="5" t="n">
         <f aca="false">B67+1</f>
@@ -4851,7 +4831,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B69" s="5" t="n">
         <f aca="false">B68+1</f>
@@ -4863,7 +4843,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B70" s="5" t="n">
         <f aca="false">B69+1</f>
@@ -4875,7 +4855,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B71" s="5" t="n">
         <f aca="false">B70+1</f>
@@ -4887,7 +4867,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B72" s="5" t="n">
         <f aca="false">B71+1</f>
@@ -4899,7 +4879,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B73" s="5" t="n">
         <f aca="false">B72+1</f>
@@ -4911,7 +4891,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B74" s="5" t="n">
         <f aca="false">B73+1</f>
@@ -4923,7 +4903,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B75" s="5" t="n">
         <f aca="false">B74+1</f>
@@ -4935,7 +4915,7 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B76" s="5" t="n">
         <f aca="false">B75+1</f>
@@ -4947,7 +4927,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B77" s="5" t="n">
         <f aca="false">B76+1</f>
@@ -4959,7 +4939,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B78" s="5" t="n">
         <f aca="false">B77+1</f>
@@ -4971,7 +4951,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B79" s="5" t="n">
         <f aca="false">B78+1</f>
@@ -4983,7 +4963,7 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B80" s="5" t="n">
         <f aca="false">B79+1</f>
@@ -4995,7 +4975,7 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B81" s="5" t="n">
         <f aca="false">B80+1</f>
@@ -5007,7 +4987,7 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B82" s="5" t="n">
         <f aca="false">B81+1</f>
@@ -5019,7 +4999,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B83" s="5" t="n">
         <f aca="false">B82+1</f>
@@ -5031,7 +5011,7 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B84" s="5" t="n">
         <f aca="false">B83+1</f>
@@ -5043,7 +5023,7 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B85" s="5" t="n">
         <f aca="false">B84+1</f>
@@ -5055,7 +5035,7 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B86" s="5" t="n">
         <f aca="false">B85+1</f>
@@ -5067,7 +5047,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B87" s="5" t="n">
         <f aca="false">B86+1</f>
@@ -5079,7 +5059,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B88" s="5" t="n">
         <f aca="false">B87+1</f>
@@ -5091,7 +5071,7 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B89" s="5" t="n">
         <f aca="false">B88+1</f>
@@ -5103,7 +5083,7 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B90" s="5" t="n">
         <f aca="false">B89+1</f>
@@ -5115,7 +5095,7 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B91" s="5" t="n">
         <f aca="false">B90+1</f>
@@ -5127,7 +5107,7 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B92" s="5" t="n">
         <f aca="false">B91+1</f>
@@ -5139,7 +5119,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B93" s="5" t="n">
         <f aca="false">B92+1</f>
@@ -6474,15 +6454,15 @@
   </sheetPr>
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F151" activeCellId="0" sqref="F151"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F151" activeCellId="1" sqref="A9:A12 F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6490,7 +6470,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,7 +6478,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,7 +6486,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,7 +6494,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6522,7 +6502,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,12 +6510,12 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,82 +6523,82 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B31" s="11" t="n">
         <v>44866</v>
@@ -6635,7 +6615,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B32" s="11" t="n">
         <v>44896</v>
@@ -6652,42 +6632,42 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,92 +6675,92 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,12 +6771,12 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,12 +6784,12 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,12 +6797,12 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,12 +6810,12 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,67 +6823,67 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,7 +6891,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,17 +6899,17 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6937,17 +6917,17 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,87 +6935,87 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,7 +7026,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,27 +7034,27 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7082,22 +7062,22 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7105,12 +7085,12 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7118,22 +7098,22 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,222 +7121,222 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
